--- a/biology/Botanique/Mimosoideae/Mimosoideae.xlsx
+++ b/biology/Botanique/Mimosoideae/Mimosoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Mimosoideae est une des trois sous-familles de la famille Fabaceae (ou Leguminosae). Les plantes qui en font partie sont des arbres ou des arbustes de tropiques ou sous tropiques. Le plus grand nombre étant dans le genre Acacia.
-Cette sous-famille existe dans la classification phylogénétique APG - APG (1998), APG II (2003),  puis APG III (2009) et sa révision APG IV (2016) - mais elle n'existe pas dans la classification classique de Cronquist (1981)[1], qui élevait ce groupe au rang de famille à part entière : la famille des Mimosaceae.
+Cette sous-famille existe dans la classification phylogénétique APG - APG (1998), APG II (2003),  puis APG III (2009) et sa révision APG IV (2016) - mais elle n'existe pas dans la classification classique de Cronquist (1981), qui élevait ce groupe au rang de famille à part entière : la famille des Mimosaceae.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Acacieae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acacia Mill.
@@ -550,7 +564,9 @@
           <t>Ingeae</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Abarema Pittier, 1927
@@ -582,7 +598,7 @@
 Paraserianthes I.C.Nielsen
 Pithecellobium Mart.
 Pseudosamanea
-Robrichia (Barneby &amp; J.W. Grimes) A.R.M. Luz &amp; É.R. Souza 2022[2]
+Robrichia (Barneby &amp; J.W. Grimes) A.R.M. Luz &amp; É.R. Souza 2022
 Samanea (Benth.) Merr.
 Serianthes Benth., 1844
 Sphinga Barneby &amp; J.W.Grimes, 1996
@@ -619,9 +635,11 @@
           <t>Mimoseae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (29 juillet 2018)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (29 juillet 2018) :
 Adenanthera L., 1753
 Adenopodia C.Presl, 1851
 Alantsilodendron Villiers, 1994
@@ -689,7 +707,9 @@
           <t>Mimozygantheae</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mimozyganthus</t>
         </is>
@@ -719,7 +739,9 @@
           <t>Parkieae</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Parkia R.Br., 1826
 Pentaclethra Benth.</t>
